--- a/2024.01.15/data/open/데이터 살펴보기.xlsx
+++ b/2024.01.15/data/open/데이터 살펴보기.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kengohirano/Desktop/Dacon/Dacon_competiton/2024.01.15/data/open/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF99E6C-582A-234F-88EF-C773E30A67B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3A7630-D831-D44D-A056-E1B9DC32170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{3FC91CBE-118E-484F-9281-FF40F33B4DCA}"/>
   </bookViews>
@@ -360,6 +360,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{19C799A1-AF2A-594F-A1F1-5E7AC541C7CB}" name="metadata6" displayName="metadata6" ref="L1:N16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="L1:N16" xr:uid="{19C799A1-AF2A-594F-A1F1-5E7AC541C7CB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:N16">
+    <sortCondition ref="M1:M16"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3D6F3184-5BF1-564C-AD91-2A0BE26C5294}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{BFC0F498-4877-1447-A4DD-64331BB061E5}" uniqueName="2" name="DataType" queryTableFieldId="2" dataDxfId="0"/>
@@ -889,7 +892,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -898,6 +901,7 @@
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -960,13 +964,13 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="3" t="b">
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -996,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>25</v>
@@ -1031,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -1066,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -1101,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -1136,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>25</v>
@@ -1171,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1206,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>28</v>
@@ -1241,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -1276,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1311,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1346,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1381,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1415,13 +1419,13 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" t="b">
+      <c r="L15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/2024.01.15/data/open/데이터 살펴보기.xlsx
+++ b/2024.01.15/data/open/데이터 살펴보기.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kengohirano/Desktop/Dacon/Dacon_competiton/2024.01.15/data/open/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3A7630-D831-D44D-A056-E1B9DC32170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BE18D6-4419-1040-B1C0-C032C5B63D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{3FC91CBE-118E-484F-9281-FF40F33B4DCA}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="32">
   <si>
     <t>index</t>
   </si>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>총계좌수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -211,14 +219,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -323,8 +325,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C9F61FEB-2BDE-C443-B38B-2D88D8AE80E2}" name="metadata" displayName="metadata" ref="A1:C16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C16" xr:uid="{C9F61FEB-2BDE-C443-B38B-2D88D8AE80E2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{ECE09663-C833-924B-9CDF-9B3D68D15EFC}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C150C8F4-2A21-3D44-89AE-4AF55CA802D3}" uniqueName="2" name="DataType" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{ECE09663-C833-924B-9CDF-9B3D68D15EFC}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C150C8F4-2A21-3D44-89AE-4AF55CA802D3}" uniqueName="2" name="DataType" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{AAD7A818-D789-6D4B-B2EC-EC2E680E9710}" uniqueName="3" name="NA" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -335,8 +337,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9C1E11D-1A3C-B649-9300-091E3C723462}" name="train_aval_table" displayName="train_aval_table" ref="A1:D16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D16" xr:uid="{B9C1E11D-1A3C-B649-9300-091E3C723462}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CED51EF5-31C2-2442-ABE0-4D5831CED855}" uniqueName="1" name="index" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9891FCF8-FEC8-204F-8138-61C92E1BEE86}" uniqueName="2" name="dtype" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{CED51EF5-31C2-2442-ABE0-4D5831CED855}" uniqueName="1" name="index" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9891FCF8-FEC8-204F-8138-61C92E1BEE86}" uniqueName="2" name="dtype" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{F774721C-3A91-C94F-9DA9-BD1A90824517}" uniqueName="3" name="nunique" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{FD50C930-0127-8F48-A571-8F3DF1098E71}" uniqueName="4" name="NA" queryTableFieldId="4"/>
   </tableColumns>
@@ -348,8 +350,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B2E0D245-189D-7245-ADA3-76F1E688F312}" name="test_aval_table4" displayName="test_aval_table4" ref="F1:I15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="F1:I15" xr:uid="{B2E0D245-189D-7245-ADA3-76F1E688F312}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{90D377DA-03F1-B144-9350-3CCF398022CB}" uniqueName="1" name="index" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8E7ACE53-9967-214A-AB97-F7A026D28D91}" uniqueName="2" name="dtype" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{90D377DA-03F1-B144-9350-3CCF398022CB}" uniqueName="1" name="index" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8E7ACE53-9967-214A-AB97-F7A026D28D91}" uniqueName="2" name="dtype" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{C53D49FB-2CD6-DE4E-AA95-2A29D7FCC280}" uniqueName="3" name="nunique" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{15DF9922-2A40-A04A-A1D0-15970FA1FC80}" uniqueName="4" name="NA" queryTableFieldId="4"/>
   </tableColumns>
@@ -714,10 +716,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="b">
@@ -725,10 +727,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="b">
@@ -736,10 +738,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="b">
@@ -747,10 +749,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="b">
@@ -758,10 +760,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="b">
@@ -769,10 +771,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="b">
@@ -780,10 +782,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="b">
@@ -791,10 +793,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="b">
@@ -802,10 +804,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="b">
@@ -813,10 +815,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="b">
@@ -824,10 +826,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="b">
@@ -835,10 +837,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="b">
@@ -846,10 +848,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="b">
@@ -857,10 +859,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="b">
@@ -868,10 +870,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="b">
@@ -892,7 +894,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="Q12" sqref="Q12:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -940,34 +942,34 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>96294</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>64197</v>
       </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
       <c r="N2" t="b">
@@ -975,10 +977,10 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
@@ -987,22 +989,22 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3">
-        <v>1309</v>
+      <c r="H3" t="s">
+        <v>31</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
       <c r="N3" t="b">
@@ -1010,10 +1012,10 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -1022,10 +1024,10 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4">
@@ -1034,10 +1036,10 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
       <c r="N4" t="b">
@@ -1045,10 +1047,10 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1057,10 +1059,10 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5">
@@ -1069,10 +1071,10 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>25</v>
       </c>
       <c r="N5" t="b">
@@ -1080,34 +1082,34 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>25</v>
       </c>
       <c r="N6" t="b">
@@ -1115,10 +1117,10 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1127,10 +1129,10 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7">
@@ -1139,10 +1141,10 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>25</v>
       </c>
       <c r="N7" t="b">
@@ -1150,10 +1152,10 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
@@ -1162,10 +1164,10 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8">
@@ -1174,21 +1176,21 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -1197,10 +1199,10 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9">
@@ -1209,10 +1211,10 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>28</v>
       </c>
       <c r="N9" t="b">
@@ -1220,34 +1222,34 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>12</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>13</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>28</v>
       </c>
       <c r="N10" t="b">
@@ -1255,10 +1257,10 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11">
@@ -1267,10 +1269,10 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
       <c r="H11">
@@ -1279,10 +1281,10 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>27</v>
       </c>
       <c r="N11" t="b">
@@ -1290,10 +1292,10 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12">
@@ -1302,10 +1304,10 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>7</v>
       </c>
       <c r="H12">
@@ -1314,10 +1316,10 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>27</v>
       </c>
       <c r="N12" t="b">
@@ -1325,10 +1327,10 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1337,10 +1339,10 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13">
@@ -1349,10 +1351,10 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>26</v>
       </c>
       <c r="N13" t="b">
@@ -1360,10 +1362,10 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
@@ -1372,10 +1374,10 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14">
@@ -1384,10 +1386,10 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
         <v>26</v>
       </c>
       <c r="N14" t="b">
@@ -1395,10 +1397,10 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -1407,10 +1409,10 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
@@ -1419,36 +1421,36 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="3" t="b">
+      <c r="N15" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>7</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="3" t="b">
+      <c r="N16" s="1" t="b">
         <v>0</v>
       </c>
     </row>
